--- a/ocms/src/test/resources/TestData/CepEventMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/CepEventMappingData.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:I10"/>
 </workbook>
 </file>
 
@@ -432,7 +432,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/src/test/resources/TestData/CepEventMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/CepEventMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I10"/>
+  <oleSize ref="A1:J10"/>
 </workbook>
 </file>
 
@@ -85,7 +85,7 @@
       ,[TRANSFER_STATUS] as 'Transfer Flag'
       ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
-  FROM [Product_OCM].[dbo].[IVR_CEP_CODE_MAPPING]</t>
+  FROM [IVR_CEP_CODE_MAPPING]</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>

--- a/ocms/src/test/resources/TestData/CepEventMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/CepEventMappingData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,11 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>Cep Event</t>
   </si>
@@ -86,6 +90,12 @@
       ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
   FROM [IVR_CEP_CODE_MAPPING]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product </t>
+  </si>
+  <si>
+    <t>OCM</t>
   </si>
 </sst>
 </file>
@@ -138,6 +148,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -185,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,7 +233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +458,7 @@
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -483,6 +496,16 @@
       </c>
       <c r="F2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -509,7 +532,7 @@
     <col min="8" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -582,7 +605,7 @@
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -637,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/CepEventMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/CepEventMappingData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:K18"/>
 </workbook>
 </file>
 
@@ -444,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -517,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -595,7 +591,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/src/test/resources/TestData/CepEventMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/CepEventMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6060" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K18"/>
+  <oleSize ref="A1:Q24"/>
 </workbook>
 </file>
 
@@ -440,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -513,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/CepEventMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/CepEventMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18255" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>

--- a/ocms/src/test/resources/TestData/CepEventMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/CepEventMappingData.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A997622E-A8E7-4376-AB54-2EDBA126E3F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18255" windowHeight="8040"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Edit" sheetId="2" r:id="rId2"/>
-    <sheet name="Delete" sheetId="3" r:id="rId3"/>
-    <sheet name="Queries" sheetId="4" r:id="rId4"/>
+    <sheet name="Search" sheetId="5" r:id="rId2"/>
+    <sheet name="Edit" sheetId="2" r:id="rId3"/>
+    <sheet name="Delete" sheetId="3" r:id="rId4"/>
+    <sheet name="Queries" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>Cep Event</t>
   </si>
@@ -75,6 +81,12 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product </t>
+  </si>
+  <si>
+    <t>OCM</t>
   </si>
   <si>
     <t>SELECT [EVENT_TYPE] as 'CEP Event'
@@ -85,19 +97,13 @@
       ,[TRANSFER_STATUS] as 'Transfer Flag'
       ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
-  FROM [IVR_CEP_CODE_MAPPING]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product </t>
-  </si>
-  <si>
-    <t>OCM</t>
+  FROM [IVR_CEP_CODE_MAPPING]  Order By [EVENT_TYPE] Asc;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,6 +233,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -262,6 +285,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,24 +477,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -494,14 +534,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -510,25 +550,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FCA14D-BD39-4B7A-B0D4-580575E0BE78}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="9" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -586,22 +683,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -652,27 +749,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="1" max="1" width="48.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/CepEventMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/CepEventMappingData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A997622E-A8E7-4376-AB54-2EDBA126E3F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A194DF0A-E0AD-4DC1-BDCC-30C62711D4B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t>Cep Event</t>
   </si>
@@ -98,6 +98,9 @@
       ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
   FROM [IVR_CEP_CODE_MAPPING]  Order By [EVENT_TYPE] Asc;</t>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
 </sst>
 </file>
@@ -553,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FCA14D-BD39-4B7A-B0D4-580575E0BE78}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,6 +590,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
@@ -753,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
